--- a/Tidsplan/tidplan.xlsx
+++ b/Tidsplan/tidplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9598c5adf080dad/Dokumenter/skole/f17/projekt3/prj3Repo/Tidsplan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\OneDrive\Dokumenter\skole\f17\projekt3\prj3grp8Repo\Tidsplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t xml:space="preserve">tidsplan </t>
   </si>
@@ -77,37 +77,13 @@
     <t>sprint 9:</t>
   </si>
   <si>
-    <t>sprint 10:</t>
-  </si>
-  <si>
-    <t>sprint 11:</t>
-  </si>
-  <si>
-    <t>sprint 12:</t>
-  </si>
-  <si>
-    <t>sprint 13:</t>
-  </si>
-  <si>
-    <t>sprint 14:</t>
-  </si>
-  <si>
-    <t>sprint 15:</t>
-  </si>
-  <si>
-    <t>sprint 16:</t>
-  </si>
-  <si>
-    <t>sprint 17:</t>
-  </si>
-  <si>
-    <t>sprint 18: færdig gørelse af projekt</t>
-  </si>
-  <si>
     <t>Krav, acceptestspec og systemaktitektur done</t>
   </si>
   <si>
     <t>projekt formelering færdig</t>
+  </si>
+  <si>
+    <t>sprint 10: færdiggørelse af projetk</t>
   </si>
 </sst>
 </file>
@@ -507,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +660,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -708,7 +684,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -732,8 +708,8 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="5"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -757,8 +733,8 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="1"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -782,8 +758,8 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -807,15 +783,15 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -832,14 +808,12 @@
       <c r="N12" s="3"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -850,279 +824,115 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="A14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="B16" s="6">
+        <v>42767</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
+      <c r="B17" s="6">
+        <v>42772</v>
+      </c>
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
+      <c r="B18" s="6">
+        <v>42781</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
       <c r="T18" s="4"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="4"/>
+      <c r="B19" s="6">
+        <v>42811</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="8" t="s">
+      <c r="B20" s="6">
+        <v>42853</v>
+      </c>
+      <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="8" t="s">
+    </row>
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21" s="6">
+        <v>42884</v>
+      </c>
+      <c r="C21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
-        <v>42767</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
-        <v>42772</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="6">
-        <v>42781</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
-        <v>42811</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="6">
-        <v>42853</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="6">
-        <v>42884</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tidsplan/tidplan.xlsx
+++ b/Tidsplan/tidplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\OneDrive\Dokumenter\skole\f17\projekt3\prj3grp8Repo\Tidsplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9598c5adf080dad/Dokumenter/skole/f17/projekt3/prj3grp8Repo/Tidsplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -152,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -168,6 +168,22 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,7 +502,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,9 +510,14 @@
     <col min="1" max="1" width="39.85546875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -588,7 +609,9 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="10">
+        <v>42785</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -612,7 +635,9 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="10">
+        <v>42792</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -636,7 +661,9 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="10">
+        <v>42799</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -660,7 +687,9 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="10">
+        <v>42806</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -684,7 +713,9 @@
       <c r="E7" s="1"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="10">
+        <v>42785</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -709,7 +740,9 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="10">
+        <v>42827</v>
+      </c>
       <c r="K8" s="5"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -734,7 +767,9 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="10">
+        <v>42841</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -759,12 +794,14 @@
       <c r="K10" s="5"/>
       <c r="L10" s="3"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="N10" s="14">
+        <v>42855</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -782,12 +819,14 @@
       <c r="K11" s="5"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="14">
+        <v>42869</v>
+      </c>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -805,12 +844,14 @@
       <c r="K12" s="1"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="1"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="14">
+        <v>42883</v>
+      </c>
+      <c r="S12" s="11"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -826,12 +867,14 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="14">
+        <v>42884</v>
+      </c>
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
